--- a/DataDictionary-RestaurantsInspections.xlsx
+++ b/DataDictionary-RestaurantsInspections.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuching/Desktop/CIS 9440/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuching/04. Github - school projects/CIS 9440/Group Project/CIS9440-Group1-7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EBBA1B-629D-5D4C-B85E-E9FAF8274986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3ECCC4-131F-974C-B3B7-790BD551DF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="21880" windowHeight="17140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="Categories">'Dropdown Options'!$B$15:$B$23</definedName>
     <definedName name="category">'Dropdown Options'!$B$14:$B$23</definedName>
     <definedName name="frequency">'Dropdown Options'!$B$2:$B$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Column Info'!$A$1:$D$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Column Info'!$A$1:$D$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Dataset Info'!$A$1:$B$12</definedName>
     <definedName name="Update_Frequency">'Dropdown Options'!$B$2:$B$13</definedName>
   </definedNames>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
   <si>
     <t>Column Name</t>
   </si>
@@ -204,29 +204,6 @@
 What does each record represent?
 How can this data be used?
 What are the ideosyncracies or limitations of the data to be aware of?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF009DDC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Additional Notes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF009DDC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-(where applicable, include the  range of possible values, units of measure, how to interpret null/zero values, whether there are specific relationships between columns, and information on column source)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">List any additional information in order to provide context to the data for someone not familiar with your agency's operations. 
@@ -467,6 +444,31 @@
   <si>
     <t>Number of Yelp reviews for each restaurant from the Yelp API</t>
   </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>BIG INT</t>
+  </si>
+  <si>
+    <t>VARCHARE</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Numeric (30,12)</t>
+  </si>
+  <si>
+    <t>Additional Notes 
+(where applicable, include the  range of possible values, units of measure, how to interpret null/zero values, whether there are specific relationships between columns, and information on column source)</t>
+  </si>
 </sst>
 </file>
 
@@ -491,24 +493,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -565,11 +555,22 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF009DDC"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -586,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -681,175 +682,119 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1296,49 +1241,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="45.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="52.6640625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="3"/>
+    <col min="1" max="1" width="45.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1346,49 +1291,49 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>69</v>
+      <c r="B9" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>88</v>
+      <c r="A12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="152.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="21"/>
     </row>
     <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1399,7 +1344,7 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B12:B13"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>frequency</formula1>
@@ -1417,418 +1362,369 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="65.33203125" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="23"/>
+    <col min="1" max="1" width="23.83203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="65.33203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="33" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+      <c r="D2" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" s="34" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A5" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B5" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="15" t="s">
+      <c r="C5" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
+      <c r="E5" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="34" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+      <c r="A6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B6" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="34" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A7" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="34" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="34" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A10" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+      <c r="A12" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="187" x14ac:dyDescent="0.15">
+      <c r="A13" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="C13" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+      <c r="A14" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+      <c r="A15" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+      <c r="A16" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C16" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A17" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="28" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="126" x14ac:dyDescent="0.15">
-      <c r="A13" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A14" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A15" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A16" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="29" t="s">
+      <c r="E17" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="136" x14ac:dyDescent="0.15">
+      <c r="A18" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B18" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="C18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="112" x14ac:dyDescent="0.15">
-      <c r="A18" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="E18" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+      <c r="A19" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A20" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A19" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="29" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="B21" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A22" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A23" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+      <c r="A24" s="26" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="409.6" x14ac:dyDescent="0.15">
-      <c r="A21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="B24" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A24" s="15" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+      <c r="A25" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B25" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A25" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-    </row>
-    <row r="27" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="33"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="16"/>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="28"/>
-      <c r="D33" s="28"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="15"/>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="16"/>
-      <c r="D41" s="16"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="15"/>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="16"/>
-      <c r="D43" s="16"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="16"/>
-      <c r="D44" s="16"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="28"/>
-      <c r="D45" s="28"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="15"/>
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="15"/>
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="15"/>
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="15"/>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="15"/>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="16"/>
-      <c r="D53" s="16"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="16"/>
-      <c r="D54" s="16"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="16"/>
-      <c r="D55" s="16"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="15"/>
-      <c r="D56" s="15"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="15"/>
-      <c r="D57" s="15"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="15"/>
-      <c r="D58" s="15"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1854,125 +1750,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
     </row>
